--- a/auto_cai/data.xlsx
+++ b/auto_cai/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cashadvance" sheetId="1" r:id="rId1"/>
     <sheet name="holidayloans4u" sheetId="2" r:id="rId2"/>
+    <sheet name="proxy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>select_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +203,42 @@
   </si>
   <si>
     <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,12 +306,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -316,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,7 +391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -862,4 +902,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/auto_cai/data.xlsx
+++ b/auto_cai/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>select_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,14 @@
   </si>
   <si>
     <t>MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +913,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,10 +928,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -935,7 +939,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -943,7 +947,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -951,7 +955,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -959,7 +963,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -967,7 +971,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/auto_cai/data.xlsx
+++ b/auto_cai/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PY\hlautopages\auto_cai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pproj\AutoRun\hlautopages\auto_cai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9798,11 +9798,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="000"/>
-    <numFmt numFmtId="179" formatCode="00"/>
-    <numFmt numFmtId="180" formatCode="mm\|dd\|yyyy"/>
+    <numFmt numFmtId="176" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="178" formatCode="mm\|dd\|yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -9860,33 +9860,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10202,6 +10202,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="12" max="12" width="15.375" customWidth="1"/>
@@ -35651,13 +35652,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
